--- a/spider/glory/glory.xlsx
+++ b/spider/glory/glory.xlsx
@@ -25,15 +25,15 @@
     <t>头像</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>hero_analysis</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>最大生命</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>https://img.18183.com/uploads/allimg/191029/266-1910291PR4-50.jpg</t>
   </si>
   <si>
+    <t>曜</t>
+  </si>
+  <si>
+    <t>战士,刺客</t>
+  </si>
+  <si>
     <t>总的来说曜的技能看起来是很酷炫但是还不知道实战表现如何。虽然不是四技能的英雄，但是有了被动技能的强化看起来也需要像老夫子或者花木兰那样，利用好能量格以及技能的CD来打输出。这样看来对于手残玩家又是一个噩耗了。</t>
   </si>
   <si>
-    <t>曜</t>
-  </si>
-  <si>
-    <t>战士,刺客</t>
-  </si>
-  <si>
     <t>3225</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>https://img.18183.com/uploads/allimg/190924/266-1Z924120G1.jpg</t>
   </si>
   <si>
+    <t>西施</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
     <t>西施是一名拥有多段控制技能的法师英雄，而且还有着全新的机制，可以操控敌人移动，让队友能更好的完成击杀。</t>
   </si>
   <si>
-    <t>西施</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
     <t>3041</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>https://img.18183.com/uploads/allimg/190522/235-1Z5221J533.jpg</t>
   </si>
   <si>
+    <t>云中君</t>
+  </si>
+  <si>
     <t>云中君不仅可以跨越地形进行偷袭，更有超强的先手控制，他的一技能可以加速飞行，并进入不可选中的状态，一旦撞击到敌人，可以让敌人眩晕。不仅如此，云中君的大招同样具有很强的留人效果，经过短暂的无敌之后，云中君的大招可以让敌人减速，并造成高额的范围伤害。</t>
   </si>
   <si>
-    <t>云中君</t>
-  </si>
-  <si>
     <t>3183</t>
   </si>
   <si>
@@ -241,15 +241,15 @@
     <t>https://img.18183.com/uploads/allimg/181229/237-1Q2291H404N0.jpg</t>
   </si>
   <si>
+    <t>嫦娥</t>
+  </si>
+  <si>
+    <t>坦克,法师</t>
+  </si>
+  <si>
     <t>嫦娥拥有非常特殊的蓝盾。有蓝就有血，加上非常特殊的吸蓝技能，可以说嫦娥是非常肉的，出AP装就有很高的坦度和伤害，所以是个非常BUG的英雄。</t>
   </si>
   <si>
-    <t>嫦娥</t>
-  </si>
-  <si>
-    <t>坦克,法师</t>
-  </si>
-  <si>
     <t>1600</t>
   </si>
   <si>
@@ -283,15 +283,15 @@
     <t>https://img.18183.com/uploads/allimg/190219/237-1Z21Z94014954.png</t>
   </si>
   <si>
+    <t>盘古</t>
+  </si>
+  <si>
+    <t>坦克,战士</t>
+  </si>
+  <si>
     <t>-盘古的1技能具有较强的操作空间，合理判断敌我的位置关系，可将敌人击退到一个对自己最有利的位置去 -盘古的大招在队友的支持下会十分强大，让队友一起抱团作战，更利于盘古发挥</t>
   </si>
   <si>
-    <t>盘古</t>
-  </si>
-  <si>
-    <t>坦克,战士</t>
-  </si>
-  <si>
     <t>3067</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>https://img.18183.com/uploads/allimg/181201/237-1Q201141Z2542.png</t>
   </si>
   <si>
+    <t>瑶</t>
+  </si>
+  <si>
+    <t>法师,辅助</t>
+  </si>
+  <si>
     <t>瑶可以说是一个非常全面的辅助英雄，探草给视野，还可以给C位一个很厚的护盾，可以说很强！</t>
   </si>
   <si>
-    <t>瑶</t>
-  </si>
-  <si>
-    <t>法师,辅助</t>
-  </si>
-  <si>
     <t>3010</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>https://img.18183.com/uploads/allimg/181114/216-1Q114163524.jpg</t>
   </si>
   <si>
+    <t>上官婉儿</t>
+  </si>
+  <si>
     <t>上官婉儿每一次攻击，都是一次酣畅淋漓的书写。每一个技能，都将去体现完全不同的书写方式，篆法·疾势将会挥出一记浑劲的笔墨，对路径以及终点的敌人造成伤害。而飞白·藏锋更多是飘忽灵动的写意，除了伤害以外还会让敌人陷入其中难以移动，并且当不同的笔式交织在一起的时候，还将会爆发出难以置信的力量。一旦上官婉儿挥出章草·横鳞与墨共舞，敌人只能看见她飘逸的身姿在战场中不断穿梭，在连续完成五次书写以后，上官婉儿将化身牡丹花跃向高空绽放，她将会居高临下俯视敌人，并用自己最浓厚的笔墨痛击他们。</t>
   </si>
   <si>
-    <t>上官婉儿</t>
-  </si>
-  <si>
     <t>3215</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>https://img.18183.com/uploads/allimg/181023/237-1Q023113UBU.jpg</t>
   </si>
   <si>
+    <t>沈梦溪</t>
+  </si>
+  <si>
     <t>沈梦溪拥有超远的技能范围，可以说是长手怪。消耗能力强，而且还有其他法师没有的机动能力。可以说沈梦溪在后期拥有可以秒杀后排的能力。</t>
   </si>
   <si>
-    <t>沈梦溪</t>
-  </si>
-  <si>
     <t>3238</t>
   </si>
   <si>
@@ -367,15 +367,15 @@
     <t>https://img.18183.com/uploads/allimg/180927/237-1P92G20133S7.png</t>
   </si>
   <si>
+    <t>伽罗</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
     <t>伽罗作为新的射手英雄，拥有超远的射程和暴击伤害。在后期拥有一定装备后，远距离消耗和推进能力是非常强的。</t>
   </si>
   <si>
-    <t>伽罗</t>
-  </si>
-  <si>
-    <t>射手</t>
-  </si>
-  <si>
     <t>3173</t>
   </si>
   <si>
@@ -1711,12 +1711,12 @@
     <t>http://img.18183.com/uploads/allimg/180627/194-1P62GQ507.jpg</t>
   </si>
   <si>
+    <t>孙策</t>
+  </si>
+  <si>
     <t>孙策的被动可以回复血量，在线上这是很好的一个续航，一技能作为一个位移技能，等到被动好了的时候孙策可以用一技能上前消耗。我们可以呼叫打野过来支援，孙策的粘人还是很强的，二技能命中后可以造成减速，因为二技能可以释放三次并且减速效果是有叠加的所以基本黏住对面是跑不了的。</t>
   </si>
   <si>
-    <t>孙策</t>
-  </si>
-  <si>
     <t>3237</t>
   </si>
   <si>
@@ -1738,24 +1738,24 @@
     <t>https://img.18183.com/uploads/allimg/190124/237-1Z124155SM57.png</t>
   </si>
   <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
     <t>猪八戒可以说是一个非常全面的战士坦克了，拥有非常好的身板同时技能都是控制，可以先手、可以后手，可以说猪八戒上线后会成为新的辅助或者边路王者。</t>
   </si>
   <si>
-    <t>猪八戒</t>
-  </si>
-  <si>
     <t>http://db.18183.com/wzry/hero/16117.html</t>
   </si>
   <si>
     <t>https://img.18183.com/uploads/allimg/190812/236-1ZQ2145432.png</t>
   </si>
   <si>
+    <t>马超</t>
+  </si>
+  <si>
     <t>马超的强化普攻不可以直接锁定目标，必须用方向键锁定位置后再进行普攻。类似于关羽的技能和普攻都不能锁定目标，必须用方向键控制进攻方向!马超的强化普攻是一段小位移，可以穿越部分墙体，同时对穿越范围造成Aoe伤害。强化普攻有4秒的存储时间，可以提早捡枪存强化普攻。</t>
   </si>
   <si>
-    <t>马超</t>
-  </si>
-  <si>
     <t>13.7%%</t>
   </si>
   <si>
@@ -1765,10 +1765,10 @@
     <t>https://img.18183.com/uploads/allimg/191031/266-191031164046.jpg</t>
   </si>
   <si>
+    <t>鲁班大师</t>
+  </si>
+  <si>
     <t>鲁班大师是一个比较强力的英雄，有着不容忽视的战略意义。可以作为走边走辅都行的“摇摆位”。有坦度，有续航，还有多段大范围的控制伤害效果，适配性非常高，用来“保护”鲁班七号这种脆弱的小射手，应该是最好不过的了。不过，缺点也比较明显，就是有点笨重，没有位移手段，而且技能需要延迟释放，限制敌人的同时也容易被针对。</t>
-  </si>
-  <si>
-    <t>鲁班大师</t>
   </si>
   <si>
     <t>3287</t>
@@ -1786,9 +1786,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1829,14 +1829,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,28 +1911,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1878,24 +1918,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1917,9 +1949,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1928,37 +1959,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1973,19 +1973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,91 +1991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,7 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,7 +2021,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,37 +2123,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,17 +2191,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2221,11 +2224,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2237,6 +2246,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2255,173 +2279,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2434,8 +2434,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2784,15 +2784,15 @@
   <sheetPr/>
   <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="47.9230769230769" customWidth="1"/>
     <col min="3" max="4" width="82.5288461538462" customWidth="1"/>
-    <col min="5" max="5" width="213.461538461538" customWidth="1"/>
+    <col min="7" max="7" width="213.461538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
@@ -3097,10 +3097,10 @@
         <v>65</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>67</v>
@@ -3457,10 +3457,10 @@
         <v>105</v>
       </c>
       <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>107</v>
@@ -3553,10 +3553,10 @@
         <v>111</v>
       </c>
       <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>112</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>113</v>
@@ -3741,10 +3741,10 @@
         <v>128</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" t="s">
         <v>130</v>
       </c>
       <c r="H11" t="s">
@@ -3834,11 +3834,11 @@
         <v>138</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
       <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
         <v>140</v>
@@ -3927,11 +3927,11 @@
         <v>144</v>
       </c>
       <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
       <c r="F13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
         <v>140</v>
@@ -4020,10 +4020,10 @@
         <v>148</v>
       </c>
       <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
       <c r="F14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" t="s">
         <v>150</v>
       </c>
       <c r="H14" t="s">
@@ -4113,10 +4113,10 @@
         <v>159</v>
       </c>
       <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" t="s">
         <v>161</v>
       </c>
       <c r="H15" t="s">
@@ -4206,10 +4206,10 @@
         <v>167</v>
       </c>
       <c r="D16" s="4"/>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
       <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" t="s">
         <v>169</v>
       </c>
       <c r="H16" t="s">
@@ -4299,11 +4299,11 @@
         <v>175</v>
       </c>
       <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>176</v>
+      </c>
       <c r="F17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
@@ -4371,11 +4371,11 @@
         <v>182</v>
       </c>
       <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
       <c r="F18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
         <v>184</v>
@@ -4443,10 +4443,10 @@
         <v>189</v>
       </c>
       <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
       <c r="F19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" t="s">
         <v>169</v>
       </c>
       <c r="H19" t="s">
@@ -4536,11 +4536,11 @@
         <v>199</v>
       </c>
       <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
       <c r="F20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
         <v>53</v>
@@ -4629,10 +4629,10 @@
         <v>202</v>
       </c>
       <c r="D21" s="4"/>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
       <c r="F21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" t="s">
         <v>161</v>
       </c>
       <c r="H21" t="s">
@@ -4722,10 +4722,10 @@
         <v>210</v>
       </c>
       <c r="D22" s="4"/>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
       <c r="F22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" t="s">
         <v>212</v>
       </c>
       <c r="H22" t="s">
@@ -4815,11 +4815,11 @@
         <v>216</v>
       </c>
       <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>217</v>
+      </c>
       <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
         <v>191</v>
@@ -4890,10 +4890,10 @@
         <v>220</v>
       </c>
       <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
       <c r="F24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" t="s">
         <v>161</v>
       </c>
       <c r="H24" t="s">
@@ -4983,11 +4983,11 @@
         <v>227</v>
       </c>
       <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>228</v>
+      </c>
       <c r="F25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
         <v>184</v>
@@ -5076,10 +5076,10 @@
         <v>230</v>
       </c>
       <c r="D26" s="4"/>
+      <c r="E26" t="s">
+        <v>231</v>
+      </c>
       <c r="F26" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" t="s">
         <v>169</v>
       </c>
       <c r="H26" t="s">
@@ -5169,10 +5169,10 @@
         <v>236</v>
       </c>
       <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>237</v>
+      </c>
       <c r="F27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" t="s">
         <v>212</v>
       </c>
       <c r="H27" t="s">
@@ -5262,11 +5262,11 @@
         <v>241</v>
       </c>
       <c r="D28" s="4"/>
+      <c r="E28" t="s">
+        <v>242</v>
+      </c>
       <c r="F28" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
         <v>243</v>
@@ -5355,11 +5355,11 @@
         <v>248</v>
       </c>
       <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>249</v>
+      </c>
       <c r="F29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
         <v>191</v>
@@ -5448,10 +5448,10 @@
         <v>251</v>
       </c>
       <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
       <c r="F30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" t="s">
         <v>169</v>
       </c>
       <c r="H30" t="s">
@@ -5541,11 +5541,11 @@
         <v>254</v>
       </c>
       <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
       <c r="F31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
@@ -5634,11 +5634,11 @@
         <v>258</v>
       </c>
       <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>259</v>
+      </c>
       <c r="F32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
         <v>260</v>
@@ -5727,10 +5727,10 @@
         <v>264</v>
       </c>
       <c r="D33" s="2"/>
+      <c r="E33" t="s">
+        <v>265</v>
+      </c>
       <c r="F33" t="s">
-        <v>265</v>
-      </c>
-      <c r="G33" t="s">
         <v>150</v>
       </c>
       <c r="H33" t="s">
@@ -5820,10 +5820,10 @@
         <v>267</v>
       </c>
       <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>268</v>
+      </c>
       <c r="F34" t="s">
-        <v>268</v>
-      </c>
-      <c r="G34" t="s">
         <v>130</v>
       </c>
       <c r="H34" t="s">
@@ -5913,10 +5913,10 @@
         <v>273</v>
       </c>
       <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>274</v>
+      </c>
       <c r="F35" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" t="s">
         <v>150</v>
       </c>
       <c r="H35" t="s">
@@ -6006,11 +6006,11 @@
         <v>280</v>
       </c>
       <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>281</v>
+      </c>
       <c r="F36" t="s">
-        <v>281</v>
-      </c>
-      <c r="G36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
         <v>282</v>
@@ -6099,10 +6099,10 @@
         <v>286</v>
       </c>
       <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>287</v>
+      </c>
       <c r="F37" t="s">
-        <v>287</v>
-      </c>
-      <c r="G37" t="s">
         <v>150</v>
       </c>
       <c r="H37" t="s">
@@ -6192,11 +6192,11 @@
         <v>292</v>
       </c>
       <c r="D38" s="2"/>
+      <c r="E38" t="s">
+        <v>293</v>
+      </c>
       <c r="F38" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
         <v>53</v>
@@ -6285,11 +6285,11 @@
         <v>295</v>
       </c>
       <c r="D39" s="2"/>
+      <c r="E39" t="s">
+        <v>296</v>
+      </c>
       <c r="F39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
         <v>297</v>
@@ -6378,11 +6378,11 @@
         <v>302</v>
       </c>
       <c r="D40" s="2"/>
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
       <c r="F40" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
         <v>304</v>
@@ -6471,10 +6471,10 @@
         <v>308</v>
       </c>
       <c r="D41" s="2"/>
+      <c r="E41" t="s">
+        <v>309</v>
+      </c>
       <c r="F41" t="s">
-        <v>309</v>
-      </c>
-      <c r="G41" t="s">
         <v>169</v>
       </c>
       <c r="H41" t="s">
@@ -6564,11 +6564,11 @@
         <v>311</v>
       </c>
       <c r="D42" s="2"/>
+      <c r="E42" t="s">
+        <v>312</v>
+      </c>
       <c r="F42" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
         <v>313</v>
@@ -6657,11 +6657,11 @@
         <v>317</v>
       </c>
       <c r="D43" s="2"/>
+      <c r="E43" t="s">
+        <v>318</v>
+      </c>
       <c r="F43" t="s">
-        <v>318</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
         <v>319</v>
@@ -6750,10 +6750,10 @@
         <v>322</v>
       </c>
       <c r="D44" s="2"/>
+      <c r="E44" t="s">
+        <v>323</v>
+      </c>
       <c r="F44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G44" t="s">
         <v>324</v>
       </c>
       <c r="H44" t="s">
@@ -6843,10 +6843,10 @@
         <v>327</v>
       </c>
       <c r="D45" s="2"/>
+      <c r="E45" t="s">
+        <v>328</v>
+      </c>
       <c r="F45" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" t="s">
         <v>130</v>
       </c>
       <c r="H45" t="s">
@@ -6936,11 +6936,11 @@
         <v>332</v>
       </c>
       <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>333</v>
+      </c>
       <c r="F46" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H46" t="s">
         <v>334</v>
@@ -7029,10 +7029,10 @@
         <v>336</v>
       </c>
       <c r="D47" s="2"/>
+      <c r="E47" t="s">
+        <v>337</v>
+      </c>
       <c r="F47" t="s">
-        <v>337</v>
-      </c>
-      <c r="G47" t="s">
         <v>130</v>
       </c>
       <c r="H47" t="s">
@@ -7122,11 +7122,11 @@
         <v>344</v>
       </c>
       <c r="D48" s="2"/>
+      <c r="E48" t="s">
+        <v>345</v>
+      </c>
       <c r="F48" t="s">
-        <v>345</v>
-      </c>
-      <c r="G48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
         <v>346</v>
@@ -7215,11 +7215,11 @@
         <v>348</v>
       </c>
       <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>349</v>
+      </c>
       <c r="F49" t="s">
-        <v>349</v>
-      </c>
-      <c r="G49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
         <v>191</v>
@@ -7308,10 +7308,10 @@
         <v>351</v>
       </c>
       <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>352</v>
+      </c>
       <c r="F50" t="s">
-        <v>352</v>
-      </c>
-      <c r="G50" t="s">
         <v>150</v>
       </c>
       <c r="H50" t="s">
@@ -7401,10 +7401,10 @@
         <v>356</v>
       </c>
       <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>357</v>
+      </c>
       <c r="F51" t="s">
-        <v>357</v>
-      </c>
-      <c r="G51" t="s">
         <v>358</v>
       </c>
       <c r="H51" t="s">
@@ -7494,10 +7494,10 @@
         <v>364</v>
       </c>
       <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>365</v>
+      </c>
       <c r="F52" t="s">
-        <v>365</v>
-      </c>
-      <c r="G52" t="s">
         <v>150</v>
       </c>
       <c r="H52" t="s">
@@ -7587,11 +7587,11 @@
         <v>371</v>
       </c>
       <c r="D53" s="2"/>
+      <c r="E53" t="s">
+        <v>372</v>
+      </c>
       <c r="F53" t="s">
-        <v>372</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
         <v>373</v>
@@ -7680,10 +7680,10 @@
         <v>375</v>
       </c>
       <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
       <c r="F54" t="s">
-        <v>376</v>
-      </c>
-      <c r="G54" t="s">
         <v>161</v>
       </c>
       <c r="H54" t="s">
@@ -7773,10 +7773,10 @@
         <v>382</v>
       </c>
       <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>383</v>
+      </c>
       <c r="F55" t="s">
-        <v>383</v>
-      </c>
-      <c r="G55" t="s">
         <v>161</v>
       </c>
       <c r="H55" t="s">
@@ -7866,11 +7866,11 @@
         <v>386</v>
       </c>
       <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
       <c r="F56" t="s">
-        <v>387</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
         <v>388</v>
@@ -7959,11 +7959,11 @@
         <v>390</v>
       </c>
       <c r="D57" s="2"/>
+      <c r="E57" t="s">
+        <v>391</v>
+      </c>
       <c r="F57" t="s">
-        <v>391</v>
-      </c>
-      <c r="G57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
         <v>392</v>
@@ -8052,10 +8052,10 @@
         <v>395</v>
       </c>
       <c r="D58" s="2"/>
+      <c r="E58" t="s">
+        <v>396</v>
+      </c>
       <c r="F58" t="s">
-        <v>396</v>
-      </c>
-      <c r="G58" t="s">
         <v>324</v>
       </c>
       <c r="H58" t="s">
@@ -8145,11 +8145,11 @@
         <v>400</v>
       </c>
       <c r="D59" s="2"/>
+      <c r="E59" t="s">
+        <v>401</v>
+      </c>
       <c r="F59" t="s">
-        <v>401</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
         <v>282</v>
@@ -8238,10 +8238,10 @@
         <v>403</v>
       </c>
       <c r="D60" s="2"/>
+      <c r="E60" t="s">
+        <v>404</v>
+      </c>
       <c r="F60" t="s">
-        <v>404</v>
-      </c>
-      <c r="G60" t="s">
         <v>212</v>
       </c>
       <c r="H60" t="s">
@@ -8331,10 +8331,10 @@
         <v>409</v>
       </c>
       <c r="D61" s="2"/>
+      <c r="E61" t="s">
+        <v>410</v>
+      </c>
       <c r="F61" t="s">
-        <v>410</v>
-      </c>
-      <c r="G61" t="s">
         <v>150</v>
       </c>
       <c r="H61" t="s">
@@ -8424,11 +8424,11 @@
         <v>417</v>
       </c>
       <c r="D62" s="2"/>
+      <c r="E62" t="s">
+        <v>418</v>
+      </c>
       <c r="F62" t="s">
-        <v>418</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
         <v>419</v>
@@ -8517,11 +8517,11 @@
         <v>422</v>
       </c>
       <c r="D63" s="2"/>
+      <c r="E63" t="s">
+        <v>423</v>
+      </c>
       <c r="F63" t="s">
-        <v>423</v>
-      </c>
-      <c r="G63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
         <v>424</v>
@@ -8610,10 +8610,10 @@
         <v>426</v>
       </c>
       <c r="D64" s="2"/>
+      <c r="E64" t="s">
+        <v>427</v>
+      </c>
       <c r="F64" t="s">
-        <v>427</v>
-      </c>
-      <c r="G64" t="s">
         <v>212</v>
       </c>
       <c r="H64" t="s">
@@ -8703,10 +8703,10 @@
         <v>433</v>
       </c>
       <c r="D65" s="2"/>
+      <c r="E65" t="s">
+        <v>434</v>
+      </c>
       <c r="F65" t="s">
-        <v>434</v>
-      </c>
-      <c r="G65" t="s">
         <v>161</v>
       </c>
       <c r="H65" t="s">
@@ -8796,11 +8796,11 @@
         <v>436</v>
       </c>
       <c r="D66" s="2"/>
+      <c r="E66" t="s">
+        <v>437</v>
+      </c>
       <c r="F66" t="s">
-        <v>437</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s">
         <v>438</v>
@@ -8889,10 +8889,10 @@
         <v>441</v>
       </c>
       <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>442</v>
+      </c>
       <c r="F67" t="s">
-        <v>442</v>
-      </c>
-      <c r="G67" t="s">
         <v>212</v>
       </c>
       <c r="H67" t="s">
@@ -8982,11 +8982,11 @@
         <v>448</v>
       </c>
       <c r="D68" s="2"/>
+      <c r="E68" t="s">
+        <v>449</v>
+      </c>
       <c r="F68" t="s">
-        <v>449</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
         <v>243</v>
@@ -9075,11 +9075,11 @@
         <v>451</v>
       </c>
       <c r="D69" s="2"/>
+      <c r="E69" t="s">
+        <v>452</v>
+      </c>
       <c r="F69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H69" t="s">
         <v>325</v>
@@ -9168,11 +9168,11 @@
         <v>455</v>
       </c>
       <c r="D70" s="2"/>
+      <c r="E70" t="s">
+        <v>456</v>
+      </c>
       <c r="F70" t="s">
-        <v>456</v>
-      </c>
-      <c r="G70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
         <v>438</v>
@@ -9261,10 +9261,10 @@
         <v>458</v>
       </c>
       <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>459</v>
+      </c>
       <c r="F71" t="s">
-        <v>459</v>
-      </c>
-      <c r="G71" t="s">
         <v>150</v>
       </c>
       <c r="H71" t="s">
@@ -9354,10 +9354,10 @@
         <v>463</v>
       </c>
       <c r="D72" s="2"/>
+      <c r="E72" t="s">
+        <v>464</v>
+      </c>
       <c r="F72" t="s">
-        <v>464</v>
-      </c>
-      <c r="G72" t="s">
         <v>130</v>
       </c>
       <c r="H72" t="s">
@@ -9447,11 +9447,11 @@
         <v>470</v>
       </c>
       <c r="D73" s="2"/>
+      <c r="E73" t="s">
+        <v>471</v>
+      </c>
       <c r="F73" t="s">
-        <v>471</v>
-      </c>
-      <c r="G73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
         <v>472</v>
@@ -9540,11 +9540,11 @@
         <v>474</v>
       </c>
       <c r="D74" s="2"/>
+      <c r="E74" t="s">
+        <v>475</v>
+      </c>
       <c r="F74" t="s">
-        <v>475</v>
-      </c>
-      <c r="G74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
         <v>476</v>
@@ -9633,11 +9633,11 @@
         <v>478</v>
       </c>
       <c r="D75" s="2"/>
+      <c r="E75" t="s">
+        <v>479</v>
+      </c>
       <c r="F75" t="s">
-        <v>479</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
         <v>288</v>
@@ -9726,11 +9726,11 @@
         <v>482</v>
       </c>
       <c r="D76" s="2"/>
+      <c r="E76" t="s">
+        <v>483</v>
+      </c>
       <c r="F76" t="s">
-        <v>483</v>
-      </c>
-      <c r="G76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H76" t="s">
         <v>484</v>
@@ -9819,10 +9819,10 @@
         <v>487</v>
       </c>
       <c r="D77" s="2"/>
+      <c r="E77" t="s">
+        <v>488</v>
+      </c>
       <c r="F77" t="s">
-        <v>488</v>
-      </c>
-      <c r="G77" t="s">
         <v>212</v>
       </c>
       <c r="H77" t="s">
@@ -9912,11 +9912,11 @@
         <v>493</v>
       </c>
       <c r="D78" s="2"/>
+      <c r="E78" t="s">
+        <v>494</v>
+      </c>
       <c r="F78" t="s">
-        <v>494</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
         <v>495</v>
@@ -10005,11 +10005,11 @@
         <v>497</v>
       </c>
       <c r="D79" s="2"/>
+      <c r="E79" t="s">
+        <v>498</v>
+      </c>
       <c r="F79" t="s">
-        <v>498</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
         <v>499</v>
@@ -10098,11 +10098,11 @@
         <v>503</v>
       </c>
       <c r="D80" s="2"/>
+      <c r="E80" t="s">
+        <v>504</v>
+      </c>
       <c r="F80" t="s">
-        <v>504</v>
-      </c>
-      <c r="G80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
         <v>505</v>
@@ -10191,11 +10191,11 @@
         <v>507</v>
       </c>
       <c r="D81" s="2"/>
+      <c r="E81" t="s">
+        <v>508</v>
+      </c>
       <c r="F81" t="s">
-        <v>508</v>
-      </c>
-      <c r="G81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H81" t="s">
         <v>509</v>
@@ -10284,11 +10284,11 @@
         <v>511</v>
       </c>
       <c r="D82" s="2"/>
+      <c r="E82" t="s">
+        <v>512</v>
+      </c>
       <c r="F82" t="s">
-        <v>512</v>
-      </c>
-      <c r="G82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
         <v>513</v>
@@ -10377,11 +10377,11 @@
         <v>517</v>
       </c>
       <c r="D83" s="2"/>
+      <c r="E83" t="s">
+        <v>518</v>
+      </c>
       <c r="F83" t="s">
-        <v>518</v>
-      </c>
-      <c r="G83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s">
         <v>519</v>
@@ -10470,11 +10470,11 @@
         <v>521</v>
       </c>
       <c r="D84" s="2"/>
+      <c r="E84" t="s">
+        <v>522</v>
+      </c>
       <c r="F84" t="s">
-        <v>522</v>
-      </c>
-      <c r="G84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
         <v>523</v>
@@ -10563,10 +10563,10 @@
         <v>525</v>
       </c>
       <c r="D85" s="2"/>
+      <c r="E85" t="s">
+        <v>526</v>
+      </c>
       <c r="F85" t="s">
-        <v>526</v>
-      </c>
-      <c r="G85" t="s">
         <v>150</v>
       </c>
       <c r="H85" t="s">
@@ -10656,11 +10656,11 @@
         <v>529</v>
       </c>
       <c r="D86" s="2"/>
+      <c r="E86" t="s">
+        <v>530</v>
+      </c>
       <c r="F86" t="s">
-        <v>530</v>
-      </c>
-      <c r="G86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s">
         <v>531</v>
@@ -10749,10 +10749,10 @@
         <v>533</v>
       </c>
       <c r="D87" s="2"/>
+      <c r="E87" t="s">
+        <v>534</v>
+      </c>
       <c r="F87" t="s">
-        <v>534</v>
-      </c>
-      <c r="G87" t="s">
         <v>212</v>
       </c>
       <c r="H87" t="s">
@@ -10842,11 +10842,11 @@
         <v>538</v>
       </c>
       <c r="D88" s="2"/>
+      <c r="E88" t="s">
+        <v>539</v>
+      </c>
       <c r="F88" t="s">
-        <v>539</v>
-      </c>
-      <c r="G88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H88" t="s">
         <v>540</v>
@@ -10935,11 +10935,11 @@
         <v>542</v>
       </c>
       <c r="D89" s="2"/>
+      <c r="E89" t="s">
+        <v>543</v>
+      </c>
       <c r="F89" t="s">
-        <v>543</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s">
         <v>53</v>
@@ -11028,10 +11028,10 @@
         <v>545</v>
       </c>
       <c r="D90" s="2"/>
+      <c r="E90" t="s">
+        <v>546</v>
+      </c>
       <c r="F90" t="s">
-        <v>546</v>
-      </c>
-      <c r="G90" t="s">
         <v>150</v>
       </c>
       <c r="H90" t="s">
@@ -11121,11 +11121,11 @@
         <v>549</v>
       </c>
       <c r="D91" s="2"/>
+      <c r="E91" t="s">
+        <v>550</v>
+      </c>
       <c r="F91" t="s">
-        <v>550</v>
-      </c>
-      <c r="G91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H91" t="s">
         <v>184</v>
@@ -11214,11 +11214,11 @@
         <v>552</v>
       </c>
       <c r="D92" s="2"/>
+      <c r="E92" t="s">
+        <v>553</v>
+      </c>
       <c r="F92" t="s">
-        <v>553</v>
-      </c>
-      <c r="G92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
         <v>554</v>
@@ -11307,11 +11307,11 @@
         <v>556</v>
       </c>
       <c r="D93" s="2"/>
+      <c r="E93" t="s">
+        <v>557</v>
+      </c>
       <c r="F93" t="s">
-        <v>557</v>
-      </c>
-      <c r="G93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s">
         <v>558</v>
@@ -11400,11 +11400,11 @@
         <v>560</v>
       </c>
       <c r="D94" s="2"/>
+      <c r="E94" t="s">
+        <v>561</v>
+      </c>
       <c r="F94" t="s">
-        <v>561</v>
-      </c>
-      <c r="G94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
         <v>562</v>
@@ -11497,10 +11497,10 @@
         <v>565</v>
       </c>
       <c r="F95" t="s">
+        <v>212</v>
+      </c>
+      <c r="G95" t="s">
         <v>566</v>
-      </c>
-      <c r="G95" t="s">
-        <v>212</v>
       </c>
       <c r="H95" t="s">
         <v>567</v>
@@ -11593,10 +11593,10 @@
         <v>574</v>
       </c>
       <c r="F96" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s">
         <v>575</v>
-      </c>
-      <c r="G96" t="s">
-        <v>91</v>
       </c>
       <c r="H96" t="s">
         <v>92</v>
@@ -11689,10 +11689,10 @@
         <v>578</v>
       </c>
       <c r="F97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" t="s">
         <v>579</v>
-      </c>
-      <c r="G97" t="s">
-        <v>150</v>
       </c>
       <c r="H97" t="s">
         <v>304</v>
@@ -11785,10 +11785,10 @@
         <v>583</v>
       </c>
       <c r="F98" t="s">
+        <v>212</v>
+      </c>
+      <c r="G98" t="s">
         <v>584</v>
-      </c>
-      <c r="G98" t="s">
-        <v>212</v>
       </c>
       <c r="H98" t="s">
         <v>585</v>
